--- a/imageCreationExcel/back/110/110_0.xlsx
+++ b/imageCreationExcel/back/110/110_0.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27.46979114561788</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8677789586953873</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5462393135899347</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_8_brightness27.47_contrast0.868_gamma0.546.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29.50615583575282</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,22 +545,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9744258648357175</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1681106383954071</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_8_brightness29.506_gamma0.974_sharpness0.168.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.162937659304368</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8902478503083205</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>27.13814161862261</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_contrast1.163_sharpness0.89_equalization27.138.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.001761346857302</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2138884338830978</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.333650692505788</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_0_gamma1.002_sharpness0.214_equalization8.334.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19.27743160813074</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.114740264873978</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.09517167077588</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_7_brightness19.277_contrast1.115_gamma1.095.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8151920606934264</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.089690617515952</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.594141577485082</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_contrast0.815_gamma1.09_equalization7.594.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.110111049571096</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.692660014723119</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.5774889157047394</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_contrast1.11_gamma0.693_sharpness0.577.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.029345271297548</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8090778194932937</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.942392002804133</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_contrast1.029_gamma0.809_equalization4.942.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -827,34 +827,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20.45704861141948</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8696311173251152</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9681632996796532</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_I_brightness20.457_contrast0.87_sharpness0.968.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.121558016463708</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8598596919179556</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.78486412946576</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_0_contrast1.122_gamma0.86_sharpness0.785.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.169842292406083</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8089290536282316</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8443888672215938</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_8_contrast1.17_gamma0.809_sharpness0.844.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8061154273735186</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6053872438704545</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.522038439983539</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_3_contrast0.806_gamma0.605_sharpness0.522.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,15 +999,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8331251688909337</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9959811054201055</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10.57598650021629</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_contrast0.833_gamma0.996_equalization10.576.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22.96965061876132</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.941454551892401</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5633735373395012</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_brightness22.97_contrast0.941_gamma0.563.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1079,19 +1079,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.163592704167431</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8460134348434324</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8692042650327193</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_P_contrast1.164_gamma0.846_sharpness0.869.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,24 +1116,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8417535134233316</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9241693939610259</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7.689418907658548</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_contrast0.842_gamma0.924_equalization7.689.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9456916454319731</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.003950468018331</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1240488332379118</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_C_contrast0.946_gamma1.004_sharpness0.124.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7346461077898947</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8940508062219813</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.002392377944178686</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_brightness0.735_contrast0.894_sharpness0.002.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.739782577975335</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.115325829191251</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9320530770184813</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_0_brightness8.74_contrast1.115_gamma0.932.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.004406171870577</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.7795828801600797</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>24.24407978300185</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_I_contrast1.004_gamma0.78_equalization24.244.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9144768876674267</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8778012579833174</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.7237253612235047</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_T_contrast0.914_gamma0.878_sharpness0.724.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,15 +1377,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18.8913590189068</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.060224987695493</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9800306346009988</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_C_brightness18.891_contrast1.06_sharpness0.98.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.050987558182175</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.89805387019405</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10.46769052258398</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_T_contrast1.051_gamma0.898_equalization10.468.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,15 +1461,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.17950977505707</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.168852461345257</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.1228900904833097</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_brightness4.18_contrast1.169_sharpness0.123.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.188818055956535</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6393252943155325</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.08726971103210339</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_7_contrast1.189_gamma0.639_sharpness0.087.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18.12711460210126</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8384299367544954</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.5854960751437304</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_S_brightness18.127_contrast0.838_gamma0.585.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,24 +1578,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6964464995054679</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.2647144533322292</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>29.67811243621839</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_T_gamma0.696_sharpness0.265_equalization29.678.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,15 +1629,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.094998665373103</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.05299353879094228</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8.249769388826689</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_contrast1.095_sharpness0.053_equalization8.25.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.638303921832666</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.7607355582015978</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.333344900537471</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_gamma0.638_sharpness0.761_equalization6.333.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18.68938733400136</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.13679290653805</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.5395588957662946</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_brightness18.689_contrast1.137_gamma0.54.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,24 +1746,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.917419866131205</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8770122657717686</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8.38173693112603</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_0_contrast0.917_gamma0.877_equalization8.382.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>22.48825999217883</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.072414300720493</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.5059934076339598</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_brightness22.488_gamma1.072_sharpness0.506.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.131777235869108</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5302401484554992</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>26.39185762583121</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_E_contrast1.132_gamma0.53_equalization26.392.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.109296491087389</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8636604766615049</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>18.49817702828902</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_contrast1.109_sharpness0.864_equalization18.498.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4966735394214605</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.055298399944816</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.9651334341987542</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_brightness0.497_gamma1.055_sharpness0.965.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1961,34 +1961,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7957556267498009</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5275381544221175</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>30.83362956001127</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_I_gamma0.796_sharpness0.528_equalization30.834.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,24 +1998,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8931008392869031</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.695984245741103</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.690210832157816</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_E_contrast0.893_gamma0.696_sharpness0.69.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.976803056408542</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.034847776117587</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.5248245583510679</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_brightness5.977_contrast1.035_gamma0.525.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,15 +2091,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>18.68996532098441</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.049534396606323</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.4544026341938711</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_9_brightness18.69_contrast1.05_sharpness0.454.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>18.46578262727301</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9952027921012253</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.7370643806765593</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_2_brightness18.466_contrast0.995_sharpness0.737.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,30 +2175,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.039688076359914</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9634870979066308</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.1123289875265094</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_contrast1.04_gamma0.963_sharpness0.112.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9703193721169543</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.2713266942068631</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>20.26255822866569</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_B_gamma0.97_sharpness0.271_equalization20.263.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13.67907713666467</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.043055873394388</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.8533718315745554</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_brightness13.679_contrast1.043_sharpness0.853.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9605256116605656</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.309356463189731</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>26.24037617046484</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_P_contrast0.961_sharpness0.309_equalization26.24.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>18.3253252699405</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.098946597525318</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.390498832965543</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_T_brightness18.325_gamma1.099_sharpness0.39.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8795632149302821</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.3995321502893703</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>16.63559959383587</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_E_contrast0.88_sharpness0.4_equalization16.636.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15.57634407042121</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8024515544000441</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.5689600353941802</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_brightness15.576_contrast0.802_gamma0.569.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7.259434849758183</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8233495640563339</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.9237785181719564</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_I_brightness7.259_contrast0.823_gamma0.924.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
